--- a/www.eia.gov/electricity/monthly/xls/table_4_18.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_4_18.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,12 +22,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="74">
   <si>
     <t>Table 4.18. Receipts and Quality of Coal by Rank Delivered for Electricity Generation:</t>
   </si>
   <si>
-    <t>Industrial Sector by State, October 2016</t>
+    <t>Industrial Sector by State, November 2016</t>
   </si>
   <si>
     <t/>
@@ -1311,7 +1311,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="12">
         <v>0.79</v>
@@ -1375,7 +1375,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="16">
         <v>0.79</v>
@@ -1535,13 +1535,13 @@
         <v>18</v>
       </c>
       <c r="B12" s="11">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C12" s="12">
-        <v>2.58</v>
+        <v>1.71</v>
       </c>
       <c r="D12" s="13">
-        <v>8.3000000000000007</v>
+        <v>8.6</v>
       </c>
       <c r="E12" s="11">
         <v>0</v>
@@ -1599,13 +1599,13 @@
         <v>20</v>
       </c>
       <c r="B14" s="15">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="16">
-        <v>2.75</v>
+        <v>1.71</v>
       </c>
       <c r="D14" s="17">
-        <v>7.7</v>
+        <v>8.6</v>
       </c>
       <c r="E14" s="15">
         <v>0</v>
@@ -1631,13 +1631,13 @@
         <v>21</v>
       </c>
       <c r="B15" s="15">
-        <v>6</v>
+        <v>0.08</v>
       </c>
       <c r="C15" s="16">
-        <v>1.82</v>
+        <v>1.6</v>
       </c>
       <c r="D15" s="17">
-        <v>11.1</v>
+        <v>11.7</v>
       </c>
       <c r="E15" s="15">
         <v>0</v>
@@ -1663,19 +1663,19 @@
         <v>22</v>
       </c>
       <c r="B16" s="11">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C16" s="12">
-        <v>3.33</v>
+        <v>3.3</v>
       </c>
       <c r="D16" s="13">
-        <v>8.6999999999999993</v>
+        <v>8.9</v>
       </c>
       <c r="E16" s="11">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="F16" s="12">
-        <v>0.66</v>
+        <v>0.62</v>
       </c>
       <c r="G16" s="13">
         <v>6.3</v>
@@ -1695,7 +1695,7 @@
         <v>23</v>
       </c>
       <c r="B17" s="15">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C17" s="16">
         <v>3.7</v>
@@ -1704,13 +1704,13 @@
         <v>8.5</v>
       </c>
       <c r="E17" s="15">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="F17" s="16">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="G17" s="17">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="H17" s="15">
         <v>0</v>
@@ -1829,16 +1829,16 @@
         <v>0.5</v>
       </c>
       <c r="D21" s="17">
-        <v>10.4</v>
+        <v>11.5</v>
       </c>
       <c r="E21" s="15">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F21" s="16">
-        <v>0.26</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="G21" s="17">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="H21" s="15">
         <v>0</v>
@@ -1855,16 +1855,16 @@
         <v>28</v>
       </c>
       <c r="B22" s="11">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C22" s="12">
         <v>3.4</v>
       </c>
       <c r="D22" s="13">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="E22" s="11">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="F22" s="12">
         <v>0.18</v>
@@ -1887,16 +1887,16 @@
         <v>29</v>
       </c>
       <c r="B23" s="15">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C23" s="16">
         <v>3.4</v>
       </c>
       <c r="D23" s="17">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="E23" s="15">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="F23" s="16">
         <v>0.18</v>
@@ -2111,13 +2111,13 @@
         <v>36</v>
       </c>
       <c r="B30" s="11">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="C30" s="12">
-        <v>1.03</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="D30" s="13">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="E30" s="11">
         <v>0</v>
@@ -2239,13 +2239,13 @@
         <v>40</v>
       </c>
       <c r="B34" s="15">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="C34" s="16">
-        <v>1.1599999999999999</v>
+        <v>1.23</v>
       </c>
       <c r="D34" s="17">
-        <v>14.3</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="E34" s="15">
         <v>0</v>
@@ -2271,13 +2271,13 @@
         <v>41</v>
       </c>
       <c r="B35" s="15">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35" s="16">
-        <v>1.7</v>
+        <v>1.81</v>
       </c>
       <c r="D35" s="17">
-        <v>21.6</v>
+        <v>21.9</v>
       </c>
       <c r="E35" s="15">
         <v>0</v>
@@ -2335,13 +2335,13 @@
         <v>43</v>
       </c>
       <c r="B37" s="15">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C37" s="16">
-        <v>0.73</v>
+        <v>0.76</v>
       </c>
       <c r="D37" s="17">
-        <v>5.5</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="E37" s="15">
         <v>0</v>
@@ -2367,13 +2367,13 @@
         <v>44</v>
       </c>
       <c r="B38" s="15">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C38" s="16">
         <v>0.65</v>
       </c>
       <c r="D38" s="17">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="E38" s="15">
         <v>0</v>
@@ -2431,13 +2431,13 @@
         <v>46</v>
       </c>
       <c r="B40" s="11">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C40" s="12">
         <v>0.8</v>
       </c>
       <c r="D40" s="13">
-        <v>7.1</v>
+        <v>6</v>
       </c>
       <c r="E40" s="11">
         <v>0</v>
@@ -2559,13 +2559,13 @@
         <v>50</v>
       </c>
       <c r="B44" s="15">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C44" s="16">
         <v>0.8</v>
       </c>
       <c r="D44" s="17">
-        <v>7.1</v>
+        <v>6</v>
       </c>
       <c r="E44" s="15">
         <v>0</v>
@@ -2591,7 +2591,7 @@
         <v>51</v>
       </c>
       <c r="B45" s="11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C45" s="12">
         <v>0.64</v>
@@ -2623,7 +2623,7 @@
         <v>52</v>
       </c>
       <c r="B46" s="15">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C46" s="16">
         <v>0.64</v>
@@ -2751,13 +2751,13 @@
         <v>56</v>
       </c>
       <c r="B50" s="11">
-        <v>17</v>
-      </c>
-      <c r="C50" s="12">
-        <v>0.52</v>
-      </c>
-      <c r="D50" s="13">
-        <v>9.8000000000000007</v>
+        <v>0</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>11</v>
       </c>
       <c r="E50" s="11">
         <v>0</v>
@@ -2975,13 +2975,13 @@
         <v>63</v>
       </c>
       <c r="B57" s="15">
-        <v>17</v>
-      </c>
-      <c r="C57" s="16">
-        <v>0.52</v>
-      </c>
-      <c r="D57" s="17">
-        <v>9.8000000000000007</v>
+        <v>0</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>11</v>
       </c>
       <c r="E57" s="15">
         <v>0</v>
@@ -3039,13 +3039,13 @@
         <v>65</v>
       </c>
       <c r="B59" s="11">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="C59" s="12">
-        <v>0.53</v>
+        <v>0.48</v>
       </c>
       <c r="D59" s="13">
-        <v>10.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="E59" s="11">
         <v>0</v>
@@ -3071,13 +3071,13 @@
         <v>66</v>
       </c>
       <c r="B60" s="15">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="C60" s="16">
-        <v>0.53</v>
+        <v>0.48</v>
       </c>
       <c r="D60" s="17">
-        <v>10.199999999999999</v>
+        <v>10</v>
       </c>
       <c r="E60" s="15">
         <v>0</v>
@@ -3263,22 +3263,22 @@
         <v>72</v>
       </c>
       <c r="B66" s="11">
-        <v>411</v>
+        <v>327</v>
       </c>
       <c r="C66" s="12">
         <v>1.74</v>
       </c>
       <c r="D66" s="13">
-        <v>9.3000000000000007</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="E66" s="11">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="F66" s="12">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="G66" s="13">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="H66" s="11">
         <v>0</v>
